--- a/Data/Outfall020_SoilProperties .xlsx
+++ b/Data/Outfall020_SoilProperties .xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="800" windowWidth="27440" windowHeight="13000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="6460" windowWidth="27320" windowHeight="7340" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -68,9 +68,6 @@
     <t>Bedrock</t>
   </si>
   <si>
-    <t>Sand</t>
-  </si>
-  <si>
     <t xml:space="preserve">Coarse Sand </t>
   </si>
   <si>
@@ -95,7 +92,10 @@
     <t>Mid</t>
   </si>
   <si>
-    <t xml:space="preserve">Moist cover silt loam </t>
+    <t>fine sand</t>
+  </si>
+  <si>
+    <t>Moist cover rich silt very fine sand</t>
   </si>
 </sst>
 </file>
@@ -415,8 +415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -507,7 +507,7 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -518,7 +518,7 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -529,7 +529,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -540,7 +540,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -551,7 +551,7 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -562,7 +562,7 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -584,7 +584,7 @@
         <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -595,7 +595,7 @@
         <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -606,7 +606,7 @@
         <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -617,7 +617,7 @@
         <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -628,7 +628,7 @@
         <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -639,7 +639,7 @@
         <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -650,7 +650,7 @@
         <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -661,7 +661,7 @@
         <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -683,7 +683,7 @@
         <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -694,7 +694,7 @@
         <v>10</v>
       </c>
       <c r="C24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -705,7 +705,7 @@
         <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -716,7 +716,7 @@
         <v>10</v>
       </c>
       <c r="C26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -727,7 +727,7 @@
         <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -738,7 +738,7 @@
         <v>10</v>
       </c>
       <c r="C28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -749,7 +749,7 @@
         <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -760,7 +760,7 @@
         <v>10</v>
       </c>
       <c r="C30" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -771,7 +771,7 @@
         <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -782,7 +782,7 @@
         <v>10</v>
       </c>
       <c r="C32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -793,7 +793,7 @@
         <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -804,7 +804,7 @@
         <v>10</v>
       </c>
       <c r="C34" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -815,7 +815,7 @@
         <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -826,7 +826,7 @@
         <v>10</v>
       </c>
       <c r="C36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -837,7 +837,7 @@
         <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -848,7 +848,7 @@
         <v>10</v>
       </c>
       <c r="C38" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -859,7 +859,7 @@
         <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -870,7 +870,7 @@
         <v>10</v>
       </c>
       <c r="C40" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -881,7 +881,7 @@
         <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -892,7 +892,7 @@
         <v>10</v>
       </c>
       <c r="C42" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -900,7 +900,7 @@
         <v>20</v>
       </c>
       <c r="B43" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C43" t="s">
         <v>22</v>
